--- a/ALUOpcodeChanges.xlsx
+++ b/ALUOpcodeChanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Craig\Documents\000_ArtyS7\CPU2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F5514A-DA57-4DE4-AE16-6A352E277521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA66976-D532-4AB2-AC43-CE2FC81000B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1C340868-20E9-4856-BC56-A25E64F34E4A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="70">
   <si>
     <t>Command</t>
   </si>
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +291,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +614,7 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F3" sqref="F3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,16 +686,16 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -725,7 +718,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
@@ -742,6 +735,21 @@
       </c>
       <c r="J4" t="s">
         <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -760,16 +768,16 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -792,7 +800,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
@@ -809,6 +817,21 @@
       </c>
       <c r="J6" t="s">
         <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
